--- a/pdf/페이지구성.xlsx
+++ b/pdf/페이지구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coolgogi/Documents/2020-summer/H-Safari/pdf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9A3B3C-D27F-5343-BE81-F3DEE5597FE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410483D3-A624-FE47-81C5-5EEEEABF319D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52240" yWindow="-840" windowWidth="14960" windowHeight="17040" xr2:uid="{6E9F863F-9FE2-DC49-8D8A-E3FCA1281CFC}"/>
+    <workbookView xWindow="40880" yWindow="-740" windowWidth="14960" windowHeight="17040" xr2:uid="{6E9F863F-9FE2-DC49-8D8A-E3FCA1281CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>프로필 수정</t>
   </si>
   <si>
-    <t>내가 쓴 게시글</t>
-  </si>
-  <si>
     <t>내가쓴글(리스트)</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>password reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -504,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -515,7 +515,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -525,7 +525,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -595,52 +595,52 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
